--- a/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_020_BTPQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_020_BTPQuotes.xlsx
@@ -12,9 +12,6 @@
     <sheet name="MayNovPrices-ResPremium" sheetId="24" r:id="rId3"/>
     <sheet name="CCTPrices-ResPremium" sheetId="26" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Currency</t>
   </si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>CCT EU 2018-04 RESIDUE</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -608,22 +608,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,9 +986,8 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\020_Quotes\</v>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1640,9 +1623,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B23))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F23" s="39" t="e">
+      <c r="F23" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D23)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G23" s="23"/>
     </row>
@@ -1663,9 +1646,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B24))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F24" s="39" t="e">
+      <c r="F24" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D24)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G24" s="23"/>
     </row>
@@ -1900,9 +1883,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B9))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F9" s="39" t="e">
+      <c r="F9" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D9)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -1923,9 +1906,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B10))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F10" s="39" t="e">
+      <c r="F10" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D10)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G10" s="23"/>
     </row>
@@ -1946,9 +1929,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B11))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F11" s="39" t="e">
+      <c r="F11" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D11)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -1969,9 +1952,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B12))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F12" s="39" t="e">
+      <c r="F12" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D12)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -1992,9 +1975,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B13))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F13" s="39" t="e">
+      <c r="F13" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D13)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -2015,9 +1998,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B14))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F14" s="39" t="e">
+      <c r="F14" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D14)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -2038,9 +2021,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B15))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F15" s="39" t="e">
+      <c r="F15" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D15)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -2061,9 +2044,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B16))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F16" s="39" t="e">
+      <c r="F16" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D16)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -2084,9 +2067,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B17))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F17" s="39" t="e">
+      <c r="F17" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D17)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -2107,9 +2090,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B18))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F18" s="39" t="e">
+      <c r="F18" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D18)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G18" s="23"/>
     </row>
@@ -2130,9 +2113,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B19))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F19" s="39" t="e">
+      <c r="F19" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D19)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G19" s="23"/>
     </row>
@@ -2153,9 +2136,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B20))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F20" s="39" t="e">
+      <c r="F20" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D20)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G20" s="23"/>
     </row>
@@ -2176,9 +2159,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B21))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F21" s="39" t="e">
+      <c r="F21" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D21)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G21" s="23"/>
     </row>
@@ -2199,9 +2182,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B22))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F22" s="39" t="e">
+      <c r="F22" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D22)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G22" s="23"/>
     </row>
@@ -2222,9 +2205,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B23))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F23" s="39" t="e">
+      <c r="F23" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D23)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G23" s="23"/>
     </row>
@@ -2245,9 +2228,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B24))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F24" s="39" t="e">
+      <c r="F24" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D24)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="G24" s="23"/>
     </row>
@@ -2310,15 +2293,15 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_020_CCTPrices-ResPremium.xml</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="22" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D8),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>3</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="G2" s="23"/>

--- a/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_020_BTPQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_020_BTPQuotes.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Currency</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>CCT EU 2018-04 RESIDUE</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -986,8 +983,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>22</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\020_Quotes\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1132,16 +1130,16 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_020_BTPFebAugPrices-ResPremium.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D24),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D24),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="F2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="23"/>
     </row>
@@ -1623,9 +1621,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B23))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F23" s="39" t="str">
+      <c r="F23" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G23" s="23"/>
     </row>
@@ -1646,9 +1644,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B24))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F24" s="39" t="str">
+      <c r="F24" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G24" s="23"/>
     </row>
@@ -1714,16 +1712,16 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_020_BTPMayNovPrices-ResPremium.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D24),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>6</v>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D24),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="F2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="23"/>
     </row>
@@ -1883,9 +1881,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B9))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F9" s="39" t="str">
+      <c r="F9" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -1906,9 +1904,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B10))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G10" s="23"/>
     </row>
@@ -1929,9 +1927,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B11))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F11" s="39" t="str">
+      <c r="F11" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -1952,9 +1950,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B12))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F12" s="39" t="str">
+      <c r="F12" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -1975,9 +1973,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B13))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F13" s="39" t="str">
+      <c r="F13" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1998,9 +1996,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B14))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -2021,9 +2019,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B15))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F15" s="39" t="str">
+      <c r="F15" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -2044,9 +2042,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B16))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F16" s="39" t="str">
+      <c r="F16" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -2067,9 +2065,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B17))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F17" s="39" t="str">
+      <c r="F17" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -2090,9 +2088,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B18))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F18" s="39" t="str">
+      <c r="F18" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G18" s="23"/>
     </row>
@@ -2113,9 +2111,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B19))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F19" s="39" t="str">
+      <c r="F19" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G19" s="23"/>
     </row>
@@ -2136,9 +2134,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B20))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F20" s="39" t="str">
+      <c r="F20" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G20" s="23"/>
     </row>
@@ -2159,9 +2157,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B21))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F21" s="39" t="str">
+      <c r="F21" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G21" s="23"/>
     </row>
@@ -2182,9 +2180,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B22))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F22" s="39" t="str">
+      <c r="F22" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G22" s="23"/>
     </row>
@@ -2205,9 +2203,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B23))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F23" s="39" t="str">
+      <c r="F23" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G23" s="23"/>
     </row>
@@ -2228,9 +2226,9 @@
         <f>_xll.qlBondMaturityLookup("StrippableBTPs",_xll.qlBondMaturityDate(B24))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F24" s="39" t="str">
+      <c r="F24" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G24" s="23"/>
     </row>
@@ -2294,15 +2292,15 @@
         <v>EUR_020_CCTPrices-ResPremium.xml</v>
       </c>
       <c r="D2" s="22" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D8),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D8),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="31" t="str">
+      <c r="F2" s="31" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="23"/>
     </row>
